--- a/Documentação/Sprint 3/UC10_B_Seriar_Candidaturas_(automaticamente)/UC10_TestScenario.xlsx
+++ b/Documentação/Sprint 3/UC10_B_Seriar_Candidaturas_(automaticamente)/UC10_TestScenario.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4D175B2-CCEF-410D-AF8D-A5CB6999E889}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\GitHub\upskill_java1_labprg_grupo2\Documentação\Sprint 3\UC10_B_Seriar_Candidaturas_(automaticamente)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A8D4B-A944-40BF-9108-6007E0C88097}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Mover ficheiro" sheetId="2" r:id="rId2"/>
     <sheet name="Cancelar encomenda" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="101">
   <si>
     <t>Project Name</t>
   </si>
@@ -42,9 +38,6 @@
     <t>Created By</t>
   </si>
   <si>
-    <t xml:space="preserve">Ana Batista </t>
-  </si>
-  <si>
     <t>Creation Date</t>
   </si>
   <si>
@@ -57,36 +50,6 @@
     <t>Test Scenario ID</t>
   </si>
   <si>
-    <t>UC10_TS_001</t>
-  </si>
-  <si>
-    <t>UC10_TS_002</t>
-  </si>
-  <si>
-    <t>UC10_TS_003</t>
-  </si>
-  <si>
-    <t>UC10_TS_004</t>
-  </si>
-  <si>
-    <t>UC10_TS_005</t>
-  </si>
-  <si>
-    <t>UC10_TS_006</t>
-  </si>
-  <si>
-    <t>UC10_TS_007</t>
-  </si>
-  <si>
-    <t>UC10_TS_008</t>
-  </si>
-  <si>
-    <t>UC10_TS_009</t>
-  </si>
-  <si>
-    <t>UC10_TS_010</t>
-  </si>
-  <si>
     <t>Test Scenario Description</t>
   </si>
   <si>
@@ -112,11 +75,6 @@
   </si>
   <si>
     <t>Test Case Description</t>
-  </si>
-  <si>
-    <t>1.O colaborador da organização consulta a lista de tarefas publicadas e por adjudicar.
-2. O colaborador da organização solicita ao sistema a seriação das candidaturas. a. No caso de seriação subjectiva com atribuição opcional, se não houver nenhuma candidatura que preencha os critérios definidos, não é seleccionada nenhuma candidatura. b. No caso de seriação subjectiva com atribuição obrigatória, o colaborador selecciona um freelancer, que cumpra os requisitos definidos pela organização, para a realização da tarefa.
-3.O sistema procede à seriação das candidaturas e apresenta ao colaborador da organização uma candidatura correspondente aos critérios seleccionados.</t>
   </si>
   <si>
     <t>Test Case Steps</t>
@@ -138,17 +96,249 @@
     <t>Test Data</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Login Colaborador válido
+2. Lista com 0 tarefas publicadas e não adjudicadas
+</t>
+  </si>
+  <si>
+    <t>1. Login Colaborador inválido:
+    1.1. Email válido;
+    1.2. Password inválida</t>
+  </si>
+  <si>
+    <t>1. Login Colaborador inválido:
+    1.1. Email inválido;</t>
+  </si>
+  <si>
+    <t>Post Conditions</t>
+  </si>
+  <si>
+    <t>Message: "Candidatura seriadas com sucesso"</t>
+  </si>
+  <si>
+    <t>Message: "Não existem candidaturas para esta tarefa."</t>
+  </si>
+  <si>
+    <t>Message: "Tarefa já foi adjudicada"</t>
+  </si>
+  <si>
+    <t>Message: "Candidaturas já seriadas"</t>
+  </si>
+  <si>
+    <t>Message: "Período de seriação de candidaturas para esta tarefa já terminou"</t>
+  </si>
+  <si>
+    <t>Message: "Período de seriação de candidaturas para esta tarefa ainda não iniciou"</t>
+  </si>
+  <si>
+    <t>Message: "Período de candidaturas para esta tarefa ainda não terminou"</t>
+  </si>
+  <si>
+    <t>Message: "Não existem tarefas publicadas que ainda não tenham sido adjudicadas!"</t>
+  </si>
+  <si>
+    <t>Message: "Password inválida"</t>
+  </si>
+  <si>
+    <t>Message: "Utilizador não registado no sistema"</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>É apresentado o perfil do candidato que mais se adequa ao pretendido para a tarefa</t>
+  </si>
+  <si>
+    <t>Popup: "Seriação não efectuada. Não existem candidaturas para esta tarefa."</t>
+  </si>
+  <si>
+    <t>Popup: "Tarefa já foi adjudicada"</t>
+  </si>
+  <si>
+    <t>Popup: "As candidaturas já foram seriadas"</t>
+  </si>
+  <si>
+    <t>Popup: "Período de seriação de candidaturas para esta tarefa já terminou"</t>
+  </si>
+  <si>
+    <t>Popup: "Período de seriação de candidaturas para esta tarefa ainda não iniciou"</t>
+  </si>
+  <si>
+    <t>Popup: "Período de candidaturas para esta tarefa ainda não terminou"</t>
+  </si>
+  <si>
+    <t>Popup: "Não existem tarefas publicadas que ainda não tenham sido adjudicadas!"</t>
+  </si>
+  <si>
+    <t>Popup:"Password inválida. Introduza a password correcta!"</t>
+  </si>
+  <si>
+    <t>Popup: "Utilizador não registado no sistema"</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Executed By</t>
+  </si>
+  <si>
+    <t>Executed Date</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>TS_001</t>
+  </si>
+  <si>
+    <t>Mover ficheiro de uma pasta para outra</t>
+  </si>
+  <si>
+    <t>TC_MoveFile_001</t>
+  </si>
+  <si>
+    <t>TC_MoveFile_002</t>
+  </si>
+  <si>
+    <t>TC_MoveFile_003</t>
+  </si>
+  <si>
+    <t>TC_MoveFile_004</t>
+  </si>
+  <si>
+    <t>Mover o ficheiro enquanto este está aberto</t>
+  </si>
+  <si>
+    <t>Não ter privilégios de escrita na pasta destino</t>
+  </si>
+  <si>
+    <t>A capacidade de espaço livre no destino é excedida</t>
+  </si>
+  <si>
+    <t>Já existe um ficheiro com esse nome na pasta destino</t>
+  </si>
+  <si>
+    <t>1. Editar ficheiro
+2. Mover ficheiro</t>
+  </si>
+  <si>
+    <t>1. Mover ficheiro</t>
+  </si>
+  <si>
+    <t>Ficheiro em edição</t>
+  </si>
+  <si>
+    <t>Retirar permissões de escrita na pasta destino</t>
+  </si>
+  <si>
+    <t>Definir quota máxima para X MB</t>
+  </si>
+  <si>
+    <t>Copiar ficheiro para c:\test</t>
+  </si>
+  <si>
+    <t>Ficheiro: c:\test.txt
+Pasta destino: c:\dest</t>
+  </si>
+  <si>
+    <t>Mensagem de erro "O ficheiro está aberto"</t>
+  </si>
+  <si>
+    <t>Mensagem de erro "Não tem permissões para executar a operação"</t>
+  </si>
+  <si>
+    <t>Mensagem de erro "Não existe espaço suficiente"</t>
+  </si>
+  <si>
+    <t>Mensagem de erro "Já existe um ficheiro com esse nome"</t>
+  </si>
+  <si>
+    <t>Popup Message: "O ficheiro está aberto"</t>
+  </si>
+  <si>
+    <t>Popup Message: "Não tem permissões para executar a operação"</t>
+  </si>
+  <si>
+    <t>Popup Message: "Não existe espaço suficiente"</t>
+  </si>
+  <si>
+    <t>Popup Message: "Já existe um ficheiro com esse nome"</t>
+  </si>
+  <si>
+    <t>Falha</t>
+  </si>
+  <si>
+    <t>Cancelar encomenda que já foi cancelada</t>
+  </si>
+  <si>
+    <t>Cancelar encomenda que existe e não foi ainda cncelada</t>
+  </si>
+  <si>
+    <t>Cancelar encomenda que não existe</t>
+  </si>
+  <si>
+    <t>Cancelar encomenda que não é reembolsável</t>
+  </si>
+  <si>
+    <t>Ana Batista  / Caroline</t>
+  </si>
+  <si>
+    <t>UC10_B_TS_001</t>
+  </si>
+  <si>
+    <t>UC10_B_TS_002</t>
+  </si>
+  <si>
+    <t>UC10_B_TS_003</t>
+  </si>
+  <si>
+    <t>UC10_B_TS_004</t>
+  </si>
+  <si>
+    <t>UC10_B_TS_005</t>
+  </si>
+  <si>
+    <t>UC10_B_TS_006</t>
+  </si>
+  <si>
+    <t>UC10_B_TS_007</t>
+  </si>
+  <si>
+    <t>UC10_B_TS_008</t>
+  </si>
+  <si>
+    <t>UC10_B_TS_009</t>
+  </si>
+  <si>
+    <t>UC10_B_TS_010</t>
+  </si>
+  <si>
+    <t>1.O colaborador da organização consulta a lista de tarefas publicadas e por adjudicar e escolhe uma tarefa cujo anúncio tenha como regimento a seriação automática.
+2.  O sistema apresenta as candidaturas ao anúncio selecionado e pergunta ao Colaborador se deseja proceder com a seriação.
+3. O Colaborador confirma proceder a seriação automática.
+4. O sistema procede a seriação automática e mostra o resultado ao Colaborador.</t>
+  </si>
+  <si>
     <t>1. Login Colaborador válido
-2. Lista com 3 tarefas publicadas e não adjudicadas
+2. Lista com tarefas publicadas e não adjudicadas não nula
 3.Período de candidaturas terminou.
 4. Período de seriação das candidaturas já iniciou e ainda não terminou.
 5. As candidaturas para esta tarefa ainda não foram seriadas.
 6.A tarefa ainda não foi adjudicada a nenhum freelancer.
-7. Existem 4 candidaturas de freelancers à tarefa</t>
+7. Existe ao menos uma candidatura de freelancers à tarefa</t>
   </si>
   <si>
     <t>1. Login Colaborador válido
-2. Lista com 3 tarefas publicadas e não adjudicadas
+2. Lista com tarefas publicadas e não adjudicadas não nula
 3.Período de candidaturas terminou.
 4. Período de seriação das candidaturas já iniciou e ainda não terminou.
 5. As candidaturas para esta tarefa ainda não foram seriadas.
@@ -157,7 +347,7 @@
   </si>
   <si>
     <t>1. Login Colaborador válido
-2. Lista com 3 tarefas publicadas e não adjudicadas
+2. Lista com tarefas publicadas e não adjudicadas não nula
 3.Período de candidaturas terminou.
 4. Período de seriação das candidaturas já iniciou e ainda não terminou.
 5. As candidaturas para esta tarefa ainda não foram seriadas.
@@ -165,7 +355,7 @@
   </si>
   <si>
     <t xml:space="preserve">1. Login Colaborador válido
-2. Lista com 3 tarefas publicadas e não adjudicadas
+2. Lista com tarefas publicadas e não adjudicadas não nula
 3.Período de candidaturas terminou.
 4. Período de seriação das candidaturas já iniciou e ainda não terminou.
 5. As candidaturas para esta tarefa já foram seriadas.
@@ -173,223 +363,30 @@
   </si>
   <si>
     <t xml:space="preserve">1. Login Colaborador válido
-2. Lista com 3 tarefas publicadas e não adjudicadas
+2. Lista com tarefas publicadas e não adjudicadas não nula
 3.Período de candidaturas terminou.
 4. Período de seriação das candidaturas já iniciou e já terminou.
 </t>
   </si>
   <si>
     <t xml:space="preserve">1. Login Colaborador válido
-2. Lista com 3 tarefas publicadas e não adjudicadas
+2. Lista com tarefas publicadas e não adjudicadas não nula
 3.Período de candidaturas terminou.
 4. Período de seriação das candidaturas ainda não iniciou.
 </t>
   </si>
   <si>
     <t xml:space="preserve">1. Login Colaborador válido
-2. Lista com 3 tarefas publicadas e não adjudicadas
+2. Lista com tarefas publicadas e não adjudicadas não nula
 3.Período de candidaturas ainda não terminou.
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Login Colaborador válido
-2. Lista com 0 tarefas publicadas e não adjudicadas
-</t>
-  </si>
-  <si>
-    <t>1. Login Colaborador inválido:
-    1.1. Email válido;
-    1.2. Password inválida</t>
-  </si>
-  <si>
-    <t>1. Login Colaborador inválido:
-    1.1. Email inválido;</t>
-  </si>
-  <si>
-    <t>Post Conditions</t>
-  </si>
-  <si>
-    <t>Message: "Candidatura seriadas com sucesso"</t>
-  </si>
-  <si>
-    <t>Message: "Não existem candidaturas para esta tarefa."</t>
-  </si>
-  <si>
-    <t>Message: "Tarefa já foi adjudicada"</t>
-  </si>
-  <si>
-    <t>Message: "Candidaturas já seriadas"</t>
-  </si>
-  <si>
-    <t>Message: "Período de seriação de candidaturas para esta tarefa já terminou"</t>
-  </si>
-  <si>
-    <t>Message: "Período de seriação de candidaturas para esta tarefa ainda não iniciou"</t>
-  </si>
-  <si>
-    <t>Message: "Período de candidaturas para esta tarefa ainda não terminou"</t>
-  </si>
-  <si>
-    <t>Message: "Não existem tarefas publicadas que ainda não tenham sido adjudicadas!"</t>
-  </si>
-  <si>
-    <t>Message: "Password inválida"</t>
-  </si>
-  <si>
-    <t>Message: "Utilizador não registado no sistema"</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>É apresentado o perfil do candidato que mais se adequa ao pretendido para a tarefa</t>
-  </si>
-  <si>
-    <t>Popup: "Seriação não efectuada. Não existem candidaturas para esta tarefa."</t>
-  </si>
-  <si>
-    <t>Popup: "Tarefa já foi adjudicada"</t>
-  </si>
-  <si>
-    <t>Popup: "As candidaturas já foram seriadas"</t>
-  </si>
-  <si>
-    <t>Popup: "Período de seriação de candidaturas para esta tarefa já terminou"</t>
-  </si>
-  <si>
-    <t>Popup: "Período de seriação de candidaturas para esta tarefa ainda não iniciou"</t>
-  </si>
-  <si>
-    <t>Popup: "Período de candidaturas para esta tarefa ainda não terminou"</t>
-  </si>
-  <si>
-    <t>Popup: "Não existem tarefas publicadas que ainda não tenham sido adjudicadas!"</t>
-  </si>
-  <si>
-    <t>Popup:"Password inválida. Introduza a password correcta!"</t>
-  </si>
-  <si>
-    <t>Popup: "Utilizador não registado no sistema"</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Executed By</t>
-  </si>
-  <si>
-    <t>Executed Date</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>TS_001</t>
-  </si>
-  <si>
-    <t>Mover ficheiro de uma pasta para outra</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_001</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_002</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_003</t>
-  </si>
-  <si>
-    <t>TC_MoveFile_004</t>
-  </si>
-  <si>
-    <t>Mover o ficheiro enquanto este está aberto</t>
-  </si>
-  <si>
-    <t>Não ter privilégios de escrita na pasta destino</t>
-  </si>
-  <si>
-    <t>A capacidade de espaço livre no destino é excedida</t>
-  </si>
-  <si>
-    <t>Já existe um ficheiro com esse nome na pasta destino</t>
-  </si>
-  <si>
-    <t>1. Editar ficheiro
-2. Mover ficheiro</t>
-  </si>
-  <si>
-    <t>1. Mover ficheiro</t>
-  </si>
-  <si>
-    <t>Ficheiro em edição</t>
-  </si>
-  <si>
-    <t>Retirar permissões de escrita na pasta destino</t>
-  </si>
-  <si>
-    <t>Definir quota máxima para X MB</t>
-  </si>
-  <si>
-    <t>Copiar ficheiro para c:\test</t>
-  </si>
-  <si>
-    <t>Ficheiro: c:\test.txt
-Pasta destino: c:\dest</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "O ficheiro está aberto"</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "Não tem permissões para executar a operação"</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "Não existe espaço suficiente"</t>
-  </si>
-  <si>
-    <t>Mensagem de erro "Já existe um ficheiro com esse nome"</t>
-  </si>
-  <si>
-    <t>Popup Message: "O ficheiro está aberto"</t>
-  </si>
-  <si>
-    <t>Popup Message: "Não tem permissões para executar a operação"</t>
-  </si>
-  <si>
-    <t>Popup Message: "Não existe espaço suficiente"</t>
-  </si>
-  <si>
-    <t>Popup Message: "Já existe um ficheiro com esse nome"</t>
-  </si>
-  <si>
-    <t>Falha</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que já foi cancelada</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que existe e não foi ainda cncelada</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que não existe</t>
-  </si>
-  <si>
-    <t>Cancelar encomenda que não é reembolsável</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -408,6 +405,12 @@
       <u/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -455,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -472,6 +475,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,7 +565,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -857,11 +863,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="G13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.75"/>
     <col min="2" max="2" width="29" style="1" customWidth="1"/>
@@ -874,392 +880,396 @@
     <col min="12" max="1025" width="10.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="B4" s="6">
         <v>44242</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="8" spans="1:11" ht="31.5">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="31.5" hidden="1">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" hidden="1">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" ht="402.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:11" s="5" customFormat="1" ht="283.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="295.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="5" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="5" customFormat="1" ht="295.5" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="2" t="s">
+      <c r="H15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="I15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" ht="220.5">
-      <c r="A14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="J15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="4" t="s">
+    </row>
+    <row r="16" spans="1:11" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="5" customFormat="1" ht="47.25">
-      <c r="A15" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="4" t="s">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="4" t="s">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="D18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="4" t="s">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="5" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" ht="47.25">
-      <c r="A16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="17.100000000000001">
-      <c r="A18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1271,7 +1281,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.75"/>
     <col min="2" max="2" width="24" style="1"/>
@@ -1279,236 +1289,236 @@
     <col min="6" max="1025" width="10.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="B6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.100000000000001">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="33.950000000000003">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.100000000000001">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="51">
-      <c r="A11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="33.950000000000003">
-      <c r="A12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="33.950000000000003">
-      <c r="A13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="33.950000000000003">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="51">
-      <c r="A15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="51">
-      <c r="A16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:5" ht="17.100000000000001">
-      <c r="A18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -1520,7 +1530,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.75"/>
     <col min="2" max="2" width="24" style="1"/>
@@ -1528,162 +1538,162 @@
     <col min="6" max="1025" width="10.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
+      <c r="B6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6"/>
-    </row>
-    <row r="8" spans="1:5" ht="17.100000000000001">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="51">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>